--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H2">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I2">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J2">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N2">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P2">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q2">
-        <v>2.992270443487143</v>
+        <v>6.113083332212446</v>
       </c>
       <c r="R2">
-        <v>2.992270443487143</v>
+        <v>55.01774998991201</v>
       </c>
       <c r="S2">
-        <v>0.04660491715174655</v>
+        <v>0.06210263192837072</v>
       </c>
       <c r="T2">
-        <v>0.04660491715174655</v>
+        <v>0.06210263192837071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H3">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I3">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J3">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N3">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P3">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q3">
-        <v>3.202672855650495</v>
+        <v>3.286366736240444</v>
       </c>
       <c r="R3">
-        <v>3.202672855650495</v>
+        <v>29.577300626164</v>
       </c>
       <c r="S3">
-        <v>0.04988195616696775</v>
+        <v>0.03338610202267869</v>
       </c>
       <c r="T3">
-        <v>0.04988195616696775</v>
+        <v>0.03338610202267868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H4">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I4">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J4">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N4">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P4">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q4">
-        <v>7.891855888877036</v>
+        <v>9.378531097691557</v>
       </c>
       <c r="R4">
-        <v>7.891855888877036</v>
+        <v>84.406779879224</v>
       </c>
       <c r="S4">
-        <v>0.1229164598658436</v>
+        <v>0.09527621874866932</v>
       </c>
       <c r="T4">
-        <v>0.1229164598658436</v>
+        <v>0.0952762187486693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.99196230116137</v>
+        <v>2.020961333333334</v>
       </c>
       <c r="H5">
-        <v>1.99196230116137</v>
+        <v>6.062884</v>
       </c>
       <c r="I5">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="J5">
-        <v>0.4262922316700839</v>
+        <v>0.3447258214530571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N5">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O5">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P5">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q5">
-        <v>13.28330944153715</v>
+        <v>15.15516478713067</v>
       </c>
       <c r="R5">
-        <v>13.28330944153715</v>
+        <v>136.396483084176</v>
       </c>
       <c r="S5">
-        <v>0.206888898485526</v>
+        <v>0.1539608687533384</v>
       </c>
       <c r="T5">
-        <v>0.206888898485526</v>
+        <v>0.1539608687533383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.6808000744453</v>
+        <v>3.841556666666667</v>
       </c>
       <c r="H6">
-        <v>2.6808000744453</v>
+        <v>11.52467</v>
       </c>
       <c r="I6">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="J6">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50217222572062</v>
+        <v>3.024839333333334</v>
       </c>
       <c r="N6">
-        <v>1.50217222572062</v>
+        <v>9.074518000000001</v>
       </c>
       <c r="O6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970389</v>
       </c>
       <c r="P6">
-        <v>0.1093262172973751</v>
+        <v>0.1801507982970388</v>
       </c>
       <c r="Q6">
-        <v>4.0270234145415</v>
+        <v>11.62009170656223</v>
       </c>
       <c r="R6">
-        <v>4.0270234145415</v>
+        <v>104.58082535906</v>
       </c>
       <c r="S6">
-        <v>0.06272130014562853</v>
+        <v>0.1180481663686681</v>
       </c>
       <c r="T6">
-        <v>0.06272130014562853</v>
+        <v>0.1180481663686681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.6808000744453</v>
+        <v>3.841556666666667</v>
       </c>
       <c r="H7">
-        <v>2.6808000744453</v>
+        <v>11.52467</v>
       </c>
       <c r="I7">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="J7">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60779792558486</v>
+        <v>1.626140333333333</v>
       </c>
       <c r="N7">
-        <v>1.60779792558486</v>
+        <v>4.878420999999999</v>
       </c>
       <c r="O7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501936</v>
       </c>
       <c r="P7">
-        <v>0.1170135237312333</v>
+        <v>0.09684827751501934</v>
       </c>
       <c r="Q7">
-        <v>4.310184798600892</v>
+        <v>6.246910238452221</v>
       </c>
       <c r="R7">
-        <v>4.310184798600892</v>
+        <v>56.22219214606999</v>
       </c>
       <c r="S7">
-        <v>0.06713156756426553</v>
+        <v>0.06346217549234068</v>
       </c>
       <c r="T7">
-        <v>0.06713156756426553</v>
+        <v>0.06346217549234066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.6808000744453</v>
+        <v>3.841556666666667</v>
       </c>
       <c r="H8">
-        <v>2.6808000744453</v>
+        <v>11.52467</v>
       </c>
       <c r="I8">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="J8">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.96185002310328</v>
+        <v>4.640628666666666</v>
       </c>
       <c r="N8">
-        <v>3.96185002310328</v>
+        <v>13.921886</v>
       </c>
       <c r="O8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921178</v>
       </c>
       <c r="P8">
-        <v>0.2883384934890652</v>
+        <v>0.2763825997921177</v>
       </c>
       <c r="Q8">
-        <v>10.62092783687639</v>
+        <v>17.82723799195778</v>
       </c>
       <c r="R8">
-        <v>10.62092783687639</v>
+        <v>160.44514192762</v>
       </c>
       <c r="S8">
-        <v>0.1654220336232217</v>
+        <v>0.1811063810434485</v>
       </c>
       <c r="T8">
-        <v>0.1654220336232217</v>
+        <v>0.1811063810434484</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.6808000744453</v>
+        <v>3.841556666666667</v>
       </c>
       <c r="H9">
-        <v>2.6808000744453</v>
+        <v>11.52467</v>
       </c>
       <c r="I9">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="J9">
-        <v>0.5737077683299162</v>
+        <v>0.6552741785469429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.6684542341954</v>
+        <v>7.498988000000001</v>
       </c>
       <c r="N9">
-        <v>6.6684542341954</v>
+        <v>22.496964</v>
       </c>
       <c r="O9">
-        <v>0.4853217654823264</v>
+        <v>0.4466183243958241</v>
       </c>
       <c r="P9">
-        <v>0.4853217654823264</v>
+        <v>0.446618324395824</v>
       </c>
       <c r="Q9">
-        <v>17.8767926074661</v>
+        <v>28.80778734465334</v>
       </c>
       <c r="R9">
-        <v>17.8767926074661</v>
+        <v>259.2700861018801</v>
       </c>
       <c r="S9">
-        <v>0.2784328669968005</v>
+        <v>0.2926574556424857</v>
       </c>
       <c r="T9">
-        <v>0.2784328669968005</v>
+        <v>0.2926574556424856</v>
       </c>
     </row>
   </sheetData>
